--- a/data/trans_orig/P29A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1047D4-DB64-4C0E-9029-7501B1C65CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA170C04-F395-44C3-B6D6-F80CA58ABE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BCABBCF5-20F0-4A49-A444-D92F19A0C5D1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A799A00-9889-457C-AFE1-0082D26879E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="222">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>93,06%</t>
   </si>
   <si>
-    <t>74,82%</t>
+    <t>76,14%</t>
   </si>
   <si>
     <t>97,96%</t>
   </si>
   <si>
-    <t>91,96%</t>
+    <t>91,94%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>6,94%</t>
   </si>
   <si>
-    <t>25,18%</t>
+    <t>23,86%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>8,04%</t>
+    <t>8,06%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -123,55 +123,55 @@
     <t>97,67%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
   </si>
   <si>
     <t>97,42%</t>
   </si>
   <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -180,217 +180,205 @@
     <t>98,53%</t>
   </si>
   <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>97,81%</t>
   </si>
   <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>2,19%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
   </si>
   <si>
     <t>97,17%</t>
   </si>
   <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -402,55 +390,55 @@
     <t>87,68%</t>
   </si>
   <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>85,34%</t>
   </si>
   <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
   </si>
   <si>
     <t>18,46%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>90,47%</t>
@@ -459,31 +447,31 @@
     <t>86,28%</t>
   </si>
   <si>
-    <t>93,4%</t>
+    <t>93,42%</t>
   </si>
   <si>
     <t>77,49%</t>
   </si>
   <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>6,6%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>13,72%</t>
@@ -492,229 +480,229 @@
     <t>22,51%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>62,4%</t>
   </si>
   <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>37,6%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
   </si>
   <si>
     <t>81,9%</t>
   </si>
   <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>79,29%</t>
   </si>
   <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>18,1%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
   </si>
   <si>
     <t>23,47%</t>
   </si>
   <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>76,0%</t>
   </si>
   <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
   </si>
   <si>
     <t>24,0%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>77,06%</t>
   </si>
   <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>22,94%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F38A6FB-A68F-4B33-BE48-4D1D51CB32C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCC9BCF-0A4D-4FEF-8EB9-81BC395A07A6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1575,13 +1563,13 @@
         <v>293422</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>776</v>
@@ -1590,13 +1578,13 @@
         <v>829748</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1611,13 +1599,13 @@
         <v>8017</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -1626,13 +1614,13 @@
         <v>12774</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -1641,13 +1629,13 @@
         <v>20792</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,7 +1691,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1715,13 +1703,13 @@
         <v>405380</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H13" s="7">
         <v>205</v>
@@ -1730,13 +1718,13 @@
         <v>216167</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>573</v>
@@ -1745,13 +1733,13 @@
         <v>621548</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1754,13 @@
         <v>4131</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -1781,13 +1769,13 @@
         <v>5853</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -1796,13 +1784,13 @@
         <v>9984</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1858,7 +1846,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1870,13 +1858,13 @@
         <v>545685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>361</v>
@@ -1885,13 +1873,13 @@
         <v>387765</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>900</v>
@@ -1900,13 +1888,13 @@
         <v>933450</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1909,13 @@
         <v>5032</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -1936,13 +1924,13 @@
         <v>6393</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -1951,13 +1939,13 @@
         <v>11425</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,13 +2013,13 @@
         <v>1878007</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>1027</v>
@@ -2040,13 +2028,13 @@
         <v>1071986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>2803</v>
@@ -2055,13 +2043,13 @@
         <v>2949993</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2076,13 +2064,13 @@
         <v>24517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -2091,13 +2079,13 @@
         <v>31194</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="M20" s="7">
         <v>54</v>
@@ -2106,13 +2094,13 @@
         <v>55711</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,7 +2156,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -2189,7 +2177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCF271E-402A-4CA7-829A-12A58AF2E707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795A2799-C9DD-4D6F-B836-C27AB6935C44}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2206,7 +2194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2313,13 +2301,13 @@
         <v>46741</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -2328,13 +2316,13 @@
         <v>26779</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -2343,13 +2331,13 @@
         <v>73519</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,13 +2352,13 @@
         <v>6565</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -2379,13 +2367,13 @@
         <v>6064</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -2394,13 +2382,13 @@
         <v>12629</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2468,13 +2456,13 @@
         <v>288510</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -2483,13 +2471,13 @@
         <v>141028</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M7" s="7">
         <v>508</v>
@@ -2498,13 +2486,13 @@
         <v>429538</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,13 +2507,13 @@
         <v>30392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2534,13 +2522,13 @@
         <v>40971</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>94</v>
@@ -2549,13 +2537,13 @@
         <v>71364</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2623,13 +2611,13 @@
         <v>487308</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>288</v>
@@ -2638,13 +2626,13 @@
         <v>219161</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>732</v>
@@ -2653,13 +2641,13 @@
         <v>706470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,13 +2662,13 @@
         <v>152788</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>164</v>
@@ -2689,13 +2677,13 @@
         <v>132082</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>257</v>
@@ -2704,13 +2692,13 @@
         <v>284870</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2766,7 +2754,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2778,13 +2766,13 @@
         <v>335492</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>248</v>
@@ -2793,13 +2781,13 @@
         <v>296776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>552</v>
@@ -2808,13 +2796,13 @@
         <v>632269</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2817,13 @@
         <v>74142</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H14" s="7">
         <v>110</v>
@@ -2844,13 +2832,13 @@
         <v>91029</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>174</v>
@@ -2859,13 +2847,13 @@
         <v>165171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,7 +2909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2933,13 +2921,13 @@
         <v>460652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -2948,13 +2936,13 @@
         <v>314039</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>905</v>
@@ -2963,13 +2951,13 @@
         <v>774691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,13 +2972,13 @@
         <v>102515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>168</v>
@@ -2999,13 +2987,13 @@
         <v>142190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>267</v>
@@ -3014,13 +3002,13 @@
         <v>244705</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3076,13 @@
         <v>1618703</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>1206</v>
@@ -3103,13 +3091,13 @@
         <v>997784</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>2794</v>
@@ -3118,13 +3106,13 @@
         <v>2616487</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3127,13 @@
         <v>366403</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -3154,13 +3142,13 @@
         <v>412336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>809</v>
@@ -3169,13 +3157,13 @@
         <v>778738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P29A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA170C04-F395-44C3-B6D6-F80CA58ABE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A904231-9A9D-4868-9704-E7D4C4FB806C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A799A00-9889-457C-AFE1-0082D26879E1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8527549B-B584-488A-9D9D-1460D976AEBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="196">
   <si>
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2016 (Tasa respuesta: 43,49%)</t>
   </si>
@@ -66,297 +66,267 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
     <t>0,81%</t>
   </si>
   <si>
@@ -387,322 +357,274 @@
     <t>Población que consumió bebidas alcohólicas en las últimas dos semanas en 2023 (Tasa respuesta: 41,21%)</t>
   </si>
   <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>93,42%</t>
   </si>
   <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1036,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCC9BCF-0A4D-4FEF-8EB9-81BC395A07A6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9C2B16-1F5B-434F-8FC8-8CA56AFC07DB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1232,10 +1154,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="D4" s="7">
-        <v>83120</v>
+        <v>390616</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1247,10 +1169,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="I4" s="7">
-        <v>32152</v>
+        <v>174631</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1259,73 +1181,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>115</v>
+        <v>554</v>
       </c>
       <c r="N4" s="7">
-        <v>115272</v>
+        <v>565246</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>7336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>2398</v>
+        <v>6175</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>2398</v>
+        <v>13511</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1334,153 +1256,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="D6" s="7">
-        <v>83120</v>
+        <v>397952</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="I6" s="7">
-        <v>34550</v>
+        <v>180806</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>117</v>
+        <v>567</v>
       </c>
       <c r="N6" s="7">
-        <v>117670</v>
+        <v>578757</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>293</v>
+        <v>496</v>
       </c>
       <c r="D7" s="7">
-        <v>307496</v>
+        <v>536327</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>146</v>
+        <v>280</v>
       </c>
       <c r="I7" s="7">
-        <v>142479</v>
+        <v>293422</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>439</v>
+        <v>776</v>
       </c>
       <c r="N7" s="7">
-        <v>449974</v>
+        <v>829748</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>7336</v>
+        <v>8017</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <v>3777</v>
+        <v>12774</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N8" s="7">
-        <v>11113</v>
+        <v>20792</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1489,153 +1411,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>504</v>
       </c>
       <c r="D9" s="7">
-        <v>314832</v>
+        <v>544344</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="I9" s="7">
-        <v>146256</v>
+        <v>306196</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>450</v>
+        <v>796</v>
       </c>
       <c r="N9" s="7">
-        <v>461087</v>
+        <v>850540</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>496</v>
+        <v>368</v>
       </c>
       <c r="D10" s="7">
-        <v>536327</v>
+        <v>405380</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>280</v>
+        <v>205</v>
       </c>
       <c r="I10" s="7">
-        <v>293422</v>
+        <v>216167</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>776</v>
+        <v>573</v>
       </c>
       <c r="N10" s="7">
-        <v>829748</v>
+        <v>621548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>8017</v>
+        <v>4131</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I11" s="7">
-        <v>12774</v>
+        <v>5853</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>20792</v>
+        <v>9984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1644,153 +1566,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>504</v>
+        <v>372</v>
       </c>
       <c r="D12" s="7">
-        <v>544344</v>
+        <v>409511</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>292</v>
+        <v>211</v>
       </c>
       <c r="I12" s="7">
-        <v>306196</v>
+        <v>222020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>796</v>
+        <v>583</v>
       </c>
       <c r="N12" s="7">
-        <v>850540</v>
+        <v>631532</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>368</v>
+        <v>539</v>
       </c>
       <c r="D13" s="7">
-        <v>405380</v>
+        <v>545685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>205</v>
+        <v>361</v>
       </c>
       <c r="I13" s="7">
-        <v>216167</v>
+        <v>387765</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>573</v>
+        <v>900</v>
       </c>
       <c r="N13" s="7">
-        <v>621548</v>
+        <v>933450</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>4131</v>
+        <v>5032</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>5853</v>
+        <v>6393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" s="7">
-        <v>9984</v>
+        <v>11425</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1799,153 +1721,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>372</v>
+        <v>544</v>
       </c>
       <c r="D15" s="7">
-        <v>409511</v>
+        <v>550717</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="I15" s="7">
-        <v>222020</v>
+        <v>394158</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>583</v>
+        <v>911</v>
       </c>
       <c r="N15" s="7">
-        <v>631532</v>
+        <v>944875</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>539</v>
+        <v>1776</v>
       </c>
       <c r="D16" s="7">
-        <v>545685</v>
+        <v>1878006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
-        <v>361</v>
+        <v>1027</v>
       </c>
       <c r="I16" s="7">
-        <v>387765</v>
+        <v>1071986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
-        <v>900</v>
+        <v>2803</v>
       </c>
       <c r="N16" s="7">
-        <v>933450</v>
+        <v>2949993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>5032</v>
+        <v>24517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>6393</v>
+        <v>31194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="N17" s="7">
-        <v>11425</v>
+        <v>55711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,217 +1876,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>544</v>
+        <v>1800</v>
       </c>
       <c r="D18" s="7">
-        <v>550717</v>
+        <v>1902523</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>367</v>
+        <v>1057</v>
       </c>
       <c r="I18" s="7">
-        <v>394158</v>
+        <v>1103180</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>911</v>
+        <v>2857</v>
       </c>
       <c r="N18" s="7">
-        <v>944875</v>
+        <v>3005704</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1776</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1878007</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1027</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1071986</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2803</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2949993</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="Q19" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7">
-        <v>24517</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7">
-        <v>30</v>
-      </c>
-      <c r="I20" s="7">
-        <v>31194</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M20" s="7">
-        <v>54</v>
-      </c>
-      <c r="N20" s="7">
-        <v>55711</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1800</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1902524</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1057</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1103180</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2857</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3005704</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2177,8 +1943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795A2799-C9DD-4D6F-B836-C27AB6935C44}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9217BE-0DCC-4793-A2E0-4E6A232A0A0B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2194,7 +1960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2295,100 +2061,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>356</v>
       </c>
       <c r="D4" s="7">
-        <v>46741</v>
+        <v>333157</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="I4" s="7">
-        <v>26779</v>
+        <v>159638</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>97</v>
+        <v>605</v>
       </c>
       <c r="N4" s="7">
-        <v>73519</v>
+        <v>492794</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>6565</v>
+        <v>34827</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>6064</v>
+        <v>43796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="N5" s="7">
-        <v>12629</v>
+        <v>78623</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,153 +2163,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>392</v>
       </c>
       <c r="D6" s="7">
-        <v>53306</v>
+        <v>367984</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="I6" s="7">
-        <v>32843</v>
+        <v>203434</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>114</v>
+        <v>716</v>
       </c>
       <c r="N6" s="7">
-        <v>86148</v>
+        <v>571417</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>301</v>
+        <v>444</v>
       </c>
       <c r="D7" s="7">
-        <v>288510</v>
+        <v>476919</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>207</v>
+        <v>288</v>
       </c>
       <c r="I7" s="7">
-        <v>141028</v>
+        <v>201444</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>508</v>
+        <v>732</v>
       </c>
       <c r="N7" s="7">
-        <v>429538</v>
+        <v>678364</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D8" s="7">
-        <v>30392</v>
+        <v>340397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="I8" s="7">
-        <v>40971</v>
+        <v>117799</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>257</v>
       </c>
       <c r="N8" s="7">
-        <v>71364</v>
+        <v>458195</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,153 +2318,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>537</v>
       </c>
       <c r="D9" s="7">
-        <v>318902</v>
+        <v>817316</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>272</v>
+        <v>452</v>
       </c>
       <c r="I9" s="7">
-        <v>181999</v>
+        <v>319243</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>602</v>
+        <v>989</v>
       </c>
       <c r="N9" s="7">
-        <v>500902</v>
+        <v>1136559</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>444</v>
+        <v>304</v>
       </c>
       <c r="D10" s="7">
-        <v>487308</v>
+        <v>326527</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="I10" s="7">
-        <v>219161</v>
+        <v>376098</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>732</v>
+        <v>552</v>
       </c>
       <c r="N10" s="7">
-        <v>706470</v>
+        <v>702625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D11" s="7">
-        <v>152788</v>
+        <v>70309</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="I11" s="7">
-        <v>132082</v>
+        <v>88016</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>257</v>
+        <v>174</v>
       </c>
       <c r="N11" s="7">
-        <v>284870</v>
+        <v>158325</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,153 +2473,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>537</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>640096</v>
+        <v>396836</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>452</v>
+        <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>351243</v>
+        <v>464114</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>989</v>
+        <v>726</v>
       </c>
       <c r="N12" s="7">
-        <v>991340</v>
+        <v>860950</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="D13" s="7">
-        <v>335492</v>
+        <v>443700</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>248</v>
+        <v>421</v>
       </c>
       <c r="I13" s="7">
-        <v>296776</v>
+        <v>291013</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>552</v>
+        <v>905</v>
       </c>
       <c r="N13" s="7">
-        <v>632269</v>
+        <v>734712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="D14" s="7">
-        <v>74142</v>
+        <v>97377</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="I14" s="7">
-        <v>91029</v>
+        <v>182698</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="N14" s="7">
-        <v>165171</v>
+        <v>280075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,153 +2628,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>583</v>
       </c>
       <c r="D15" s="7">
-        <v>409634</v>
+        <v>541077</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>358</v>
+        <v>589</v>
       </c>
       <c r="I15" s="7">
-        <v>387805</v>
+        <v>473711</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>1172</v>
       </c>
       <c r="N15" s="7">
-        <v>797440</v>
+        <v>1014787</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>484</v>
+        <v>1588</v>
       </c>
       <c r="D16" s="7">
-        <v>460652</v>
+        <v>1580302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>421</v>
+        <v>1206</v>
       </c>
       <c r="I16" s="7">
-        <v>314039</v>
+        <v>1028192</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>905</v>
+        <v>2794</v>
       </c>
       <c r="N16" s="7">
-        <v>774691</v>
+        <v>2608494</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="D17" s="7">
-        <v>102515</v>
+        <v>542910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>168</v>
+        <v>517</v>
       </c>
       <c r="I17" s="7">
-        <v>142190</v>
+        <v>432309</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>267</v>
+        <v>809</v>
       </c>
       <c r="N17" s="7">
-        <v>244705</v>
+        <v>975219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,217 +2783,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>583</v>
+        <v>1880</v>
       </c>
       <c r="D18" s="7">
-        <v>563167</v>
+        <v>2123212</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>589</v>
+        <v>1723</v>
       </c>
       <c r="I18" s="7">
-        <v>456229</v>
+        <v>1460501</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1172</v>
+        <v>3603</v>
       </c>
       <c r="N18" s="7">
-        <v>1019396</v>
+        <v>3583713</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1588</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1618703</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1206</v>
-      </c>
-      <c r="I19" s="7">
-        <v>997784</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2794</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2616487</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>292</v>
-      </c>
-      <c r="D20" s="7">
-        <v>366403</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>517</v>
-      </c>
-      <c r="I20" s="7">
-        <v>412336</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="7">
-        <v>809</v>
-      </c>
-      <c r="N20" s="7">
-        <v>778738</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1880</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1985106</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1723</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1410120</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3603</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3395225</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>114</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
